--- a/data2025-02-1126.xlsx
+++ b/data2025-02-1126.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>产品名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>生产商</t>
   </si>
   <si>
+    <t>日期</t>
+  </si>
+  <si>
     <t>香葱</t>
   </si>
   <si>
@@ -94,7 +97,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>带皮莴笋</t>
+    <t>莴笋</t>
   </si>
   <si>
     <t>40.00</t>
@@ -194,11 +197,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -810,11 +814,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1356,19 +1363,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="I18" sqref="D18 I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1378,295 +1386,377 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D8" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="D26" s="2">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
+      <c r="D27" s="2">
+        <v>45701</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1751,37 +1841,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data2025-02-1126.xlsx
+++ b/data2025-02-1126.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>产品名称</t>
   </si>
@@ -46,171 +46,124 @@
     <t>日期</t>
   </si>
   <si>
-    <t>香葱</t>
+    <t>带鱼</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>新罗区兴云农副产品经营部</t>
+  </si>
+  <si>
+    <t>虾</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>新罗区陈煌活鱼店</t>
+  </si>
+  <si>
+    <t>猪肝缘</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>龙岩市新诺运星贸易有限公司</t>
+  </si>
+  <si>
+    <t>阉鸡</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>龙岩德英农副产品有限公司</t>
+  </si>
+  <si>
+    <t>前腿瘦肉</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>去皮鹌鹑蛋</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>龙岩腾腾商贸有限公司</t>
+  </si>
+  <si>
+    <t>龙骨</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>五花肉</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
     <t xml:space="preserve">新罗区谢贤福蔬菜摊 </t>
   </si>
   <si>
-    <t>大蒜</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>白萝卜</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>芹菜</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>菠菜</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>香菜</t>
-  </si>
-  <si>
-    <t>土豆</t>
-  </si>
-  <si>
-    <t>目鱼干</t>
-  </si>
-  <si>
     <t xml:space="preserve">龙岩市新罗区建辉特产经营部 </t>
   </si>
   <si>
-    <t>莲藕</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>莴笋</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>蟹味菇</t>
-  </si>
-  <si>
-    <t>五香条</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">新罗区兴云农副产品经营部 </t>
   </si>
   <si>
-    <t>芋子包</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">新罗区海云面制品店 </t>
   </si>
   <si>
-    <t>粉皮片</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>黄花菜干</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>黄公鱼</t>
-  </si>
-  <si>
     <t xml:space="preserve">新罗区陈煌活鱼店 </t>
   </si>
   <si>
-    <t>目骨</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>龙岩市新诺运星贸易有限公司</t>
-  </si>
-  <si>
-    <t>内脏</t>
-  </si>
-  <si>
-    <t>龙岩德英农副产品有限公司</t>
-  </si>
-  <si>
-    <t>肥牛</t>
-  </si>
-  <si>
-    <t>正番鸭</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>七寸蹄</t>
-  </si>
-  <si>
-    <t>牛腱子</t>
-  </si>
-  <si>
     <t>新罗区祥鸿牛肉摊</t>
-  </si>
-  <si>
-    <t>猪头皮</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>前腿瘦肉</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>正大鸡腿</t>
-  </si>
-  <si>
-    <t>龙骨</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF131313"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF131313"/>
+      <name val="Microsoft YaHei sans-serif"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -669,28 +622,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,122 +643,131 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +775,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1363,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="D18 I18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1391,368 +1359,148 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>45701</v>
+      <c r="D2" s="6">
+        <v>45702</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45701</v>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45702</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45701</v>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45702</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45701</v>
+      <c r="D6" s="6">
+        <v>45702</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45701</v>
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45702</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45701</v>
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45702</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45701</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45702</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
+        <v>210</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45701</v>
-      </c>
+      <c r="D11" s="6">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1841,37 +1589,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
